--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3952.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3952.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.271175879280477</v>
+        <v>0.8633374571800232</v>
       </c>
       <c r="B1">
-        <v>2.434136224485775</v>
+        <v>1.43573522567749</v>
       </c>
       <c r="C1">
-        <v>6.69966539341368</v>
+        <v>4.354164123535156</v>
       </c>
       <c r="D1">
-        <v>2.873329198454316</v>
+        <v>1.346722841262817</v>
       </c>
       <c r="E1">
-        <v>1.339506084676637</v>
+        <v>0.7535381317138672</v>
       </c>
     </row>
   </sheetData>
